--- a/example_attendee_list.xlsx
+++ b/example_attendee_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kate/projects/SeatingArrangement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547B1B7A-959E-F24F-B57E-A340FC96C045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB9D4BA-D005-5148-9817-931773BE0C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="2420" windowWidth="27640" windowHeight="16940" xr2:uid="{478C42E7-FB3B-A247-9E30-A30A8EF1FC30}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t xml:space="preserve"> Michelle Velazquez</t>
   </si>
   <si>
-    <t xml:space="preserve"> Stephen Lowery</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jeffrey Solomon</t>
   </si>
   <si>
@@ -218,7 +215,10 @@
     <t>Johnny Hawkins (Director)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lisa Kramer (Chair)</t>
+    <t xml:space="preserve"> Lisa Kramer</t>
+  </si>
+  <si>
+    <t>Anjali Parikh (Chair)</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,7 +623,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -828,9 +828,6 @@
       </c>
       <c r="E14" t="s">
         <v>14</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -861,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -878,7 +875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -895,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -909,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -926,7 +923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -940,7 +937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -957,60 +954,63 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -1022,26 +1022,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -1053,40 +1053,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>42</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -1101,9 +1101,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>

--- a/example_attendee_list.xlsx
+++ b/example_attendee_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kate/projects/SeatingArrangement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB9D4BA-D005-5148-9817-931773BE0C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79393EF3-9314-924D-8F35-AC1BE08E5E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="2420" windowWidth="27640" windowHeight="16940" xr2:uid="{478C42E7-FB3B-A247-9E30-A30A8EF1FC30}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,6 +764,9 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -812,6 +815,9 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -826,9 +832,6 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -887,9 +890,6 @@
       </c>
       <c r="D18" t="s">
         <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
